--- a/va_facility_data_2025-02-20/Bradenton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bradenton%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Bradenton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Bradenton%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R6bac77790aa4432ea75a9400d2def8d9"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rb9a70a913e7f41e8bc8dbc21c2bf7906"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rbd563737f1cc4b2fb4faa505a7085caf"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rc44e462276c7494ea1a2a7c08f800c35"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R0731de1915f14e7faed951a17a95fd86"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rb265cbf4d7f648d6b5afa72d7eaa8673"/>
   </x:sheets>
 </x:workbook>
 </file>
